--- a/outputs/RESULTS ScenariosBenefit Street MODIFIED.xlsx
+++ b/outputs/RESULTS ScenariosBenefit Street MODIFIED.xlsx
@@ -29,510 +29,453 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
-  <si>
-    <t>[3.936-4.069]</t>
-  </si>
-  <si>
-    <t>[4.069-4.201]</t>
-  </si>
-  <si>
-    <t>[4.201-4.334]</t>
-  </si>
-  <si>
-    <t>[4.334-4.467]</t>
-  </si>
-  <si>
-    <t>[4.467-4.599]</t>
-  </si>
-  <si>
-    <t>[4.599-4.732]</t>
-  </si>
-  <si>
-    <t>[4.732-4.864]</t>
-  </si>
-  <si>
-    <t>[4.864-4.997]</t>
-  </si>
-  <si>
-    <t>[4.997-5.129]</t>
-  </si>
-  <si>
-    <t>[5.129-5.262]</t>
-  </si>
-  <si>
-    <t>[5.262-5.395]</t>
-  </si>
-  <si>
-    <t>[5.395-5.527]</t>
-  </si>
-  <si>
-    <t>[5.527-5.66]</t>
-  </si>
-  <si>
-    <t>[5.66-5.792]</t>
-  </si>
-  <si>
-    <t>[4.074-4.178]</t>
-  </si>
-  <si>
-    <t>[4.178-4.283]</t>
-  </si>
-  <si>
-    <t>[4.283-4.388]</t>
-  </si>
-  <si>
-    <t>[4.388-4.493]</t>
-  </si>
-  <si>
-    <t>[4.493-4.598]</t>
-  </si>
-  <si>
-    <t>[4.598-4.702]</t>
-  </si>
-  <si>
-    <t>[4.702-4.807]</t>
-  </si>
-  <si>
-    <t>[4.807-4.912]</t>
-  </si>
-  <si>
-    <t>[4.912-5.017]</t>
-  </si>
-  <si>
-    <t>[5.017-5.122]</t>
-  </si>
-  <si>
-    <t>[5.122-5.226]</t>
-  </si>
-  <si>
-    <t>[5.226-5.331]</t>
-  </si>
-  <si>
-    <t>[5.331-5.436]</t>
-  </si>
-  <si>
-    <t>[5.436-5.541]</t>
-  </si>
-  <si>
-    <t>[4.295-4.402]</t>
-  </si>
-  <si>
-    <t>[4.402-4.509]</t>
-  </si>
-  <si>
-    <t>[4.509-4.616]</t>
-  </si>
-  <si>
-    <t>[4.616-4.723]</t>
-  </si>
-  <si>
-    <t>[4.723-4.829]</t>
-  </si>
-  <si>
-    <t>[4.829-4.936]</t>
-  </si>
-  <si>
-    <t>[4.936-5.043]</t>
-  </si>
-  <si>
-    <t>[5.043-5.15]</t>
-  </si>
-  <si>
-    <t>[5.15-5.257]</t>
-  </si>
-  <si>
-    <t>[5.257-5.364]</t>
-  </si>
-  <si>
-    <t>[5.364-5.471]</t>
-  </si>
-  <si>
-    <t>[5.471-5.578]</t>
-  </si>
-  <si>
-    <t>[5.578-5.685]</t>
-  </si>
-  <si>
-    <t>[5.685-5.792]</t>
-  </si>
-  <si>
-    <t>[3.936-4.055]</t>
-  </si>
-  <si>
-    <t>[4.055-4.173]</t>
-  </si>
-  <si>
-    <t>[4.173-4.292]</t>
-  </si>
-  <si>
-    <t>[4.292-4.41]</t>
-  </si>
-  <si>
-    <t>[4.41-4.529]</t>
-  </si>
-  <si>
-    <t>[4.529-4.647]</t>
-  </si>
-  <si>
-    <t>[4.647-4.766]</t>
-  </si>
-  <si>
-    <t>[4.766-4.884]</t>
-  </si>
-  <si>
-    <t>[4.884-5.003]</t>
-  </si>
-  <si>
-    <t>[5.003-5.121]</t>
-  </si>
-  <si>
-    <t>[5.121-5.24]</t>
-  </si>
-  <si>
-    <t>[5.24-5.359]</t>
-  </si>
-  <si>
-    <t>[5.359-5.477]</t>
-  </si>
-  <si>
-    <t>[5.477-5.596]</t>
-  </si>
-  <si>
-    <t>[5.62-6.36]</t>
-  </si>
-  <si>
-    <t>[6.36-7.11]</t>
-  </si>
-  <si>
-    <t>[7.11-7.86]</t>
-  </si>
-  <si>
-    <t>[7.86-8.61]</t>
-  </si>
-  <si>
-    <t>[8.61-9.36]</t>
-  </si>
-  <si>
-    <t>[9.36-10.11]</t>
-  </si>
-  <si>
-    <t>[10.11-10.85]</t>
-  </si>
-  <si>
-    <t>[10.85-11.6]</t>
-  </si>
-  <si>
-    <t>[11.6-12.35]</t>
-  </si>
-  <si>
-    <t>[12.35-13.1]</t>
-  </si>
-  <si>
-    <t>[13.1-13.85]</t>
-  </si>
-  <si>
-    <t>[13.85-14.59]</t>
-  </si>
-  <si>
-    <t>[14.59-15.34]</t>
-  </si>
-  <si>
-    <t>[15.34-16.09]</t>
-  </si>
-  <si>
-    <t>[7.1-7.68]</t>
-  </si>
-  <si>
-    <t>[7.68-8.27]</t>
-  </si>
-  <si>
-    <t>[8.27-8.85]</t>
-  </si>
-  <si>
-    <t>[8.85-9.44]</t>
-  </si>
-  <si>
-    <t>[9.44-10.02]</t>
-  </si>
-  <si>
-    <t>[10.02-10.61]</t>
-  </si>
-  <si>
-    <t>[10.61-11.19]</t>
-  </si>
-  <si>
-    <t>[11.19-11.77]</t>
-  </si>
-  <si>
-    <t>[11.77-12.36]</t>
-  </si>
-  <si>
-    <t>[12.36-12.94]</t>
-  </si>
-  <si>
-    <t>[12.94-13.53]</t>
-  </si>
-  <si>
-    <t>[13.53-14.11]</t>
-  </si>
-  <si>
-    <t>[14.11-14.7]</t>
-  </si>
-  <si>
-    <t>[14.7-15.28]</t>
-  </si>
-  <si>
-    <t>[5.62-6.22]</t>
-  </si>
-  <si>
-    <t>[6.22-6.82]</t>
-  </si>
-  <si>
-    <t>[6.82-7.42]</t>
-  </si>
-  <si>
-    <t>[7.42-8.02]</t>
-  </si>
-  <si>
-    <t>[8.02-8.63]</t>
-  </si>
-  <si>
-    <t>[8.63-9.23]</t>
-  </si>
-  <si>
-    <t>[9.23-9.83]</t>
-  </si>
-  <si>
-    <t>[9.83-10.43]</t>
-  </si>
-  <si>
-    <t>[10.43-11.04]</t>
-  </si>
-  <si>
-    <t>[11.04-11.64]</t>
-  </si>
-  <si>
-    <t>[11.64-12.24]</t>
-  </si>
-  <si>
-    <t>[12.24-12.84]</t>
-  </si>
-  <si>
-    <t>[12.84-13.44]</t>
-  </si>
-  <si>
-    <t>[13.44-14.05]</t>
-  </si>
-  <si>
-    <t>[6.78-7.44]</t>
-  </si>
-  <si>
-    <t>[7.44-8.11]</t>
-  </si>
-  <si>
-    <t>[8.11-8.77]</t>
-  </si>
-  <si>
-    <t>[8.77-9.44]</t>
-  </si>
-  <si>
-    <t>[9.44-10.1]</t>
-  </si>
-  <si>
-    <t>[10.1-10.77]</t>
-  </si>
-  <si>
-    <t>[10.77-11.43]</t>
-  </si>
-  <si>
-    <t>[11.43-12.1]</t>
-  </si>
-  <si>
-    <t>[12.1-12.76]</t>
-  </si>
-  <si>
-    <t>[12.76-13.43]</t>
-  </si>
-  <si>
-    <t>[13.43-14.09]</t>
-  </si>
-  <si>
-    <t>[14.09-14.76]</t>
-  </si>
-  <si>
-    <t>[14.76-15.42]</t>
-  </si>
-  <si>
-    <t>[15.42-16.09]</t>
-  </si>
-  <si>
-    <t>[78.73-79.02]</t>
-  </si>
-  <si>
-    <t>[79.02-79.31]</t>
-  </si>
-  <si>
-    <t>[79.31-79.6]</t>
-  </si>
-  <si>
-    <t>[79.6-79.89]</t>
-  </si>
-  <si>
-    <t>[79.89-80.18]</t>
-  </si>
-  <si>
-    <t>[80.18-80.47]</t>
-  </si>
-  <si>
-    <t>[80.47-80.76]</t>
-  </si>
-  <si>
-    <t>[80.76-81.05]</t>
-  </si>
-  <si>
-    <t>[81.05-81.34]</t>
-  </si>
-  <si>
-    <t>[81.34-81.63]</t>
-  </si>
-  <si>
-    <t>[81.63-81.92]</t>
-  </si>
-  <si>
-    <t>[81.92-82.21]</t>
-  </si>
-  <si>
-    <t>[82.21-82.5]</t>
-  </si>
-  <si>
-    <t>[82.5-82.8]</t>
-  </si>
-  <si>
-    <t>[79.32-79.56]</t>
-  </si>
-  <si>
-    <t>[79.56-79.8]</t>
-  </si>
-  <si>
-    <t>[79.8-80.04]</t>
-  </si>
-  <si>
-    <t>[80.04-80.28]</t>
-  </si>
-  <si>
-    <t>[80.28-80.52]</t>
-  </si>
-  <si>
-    <t>[80.52-80.76]</t>
-  </si>
-  <si>
-    <t>[80.76-81.0]</t>
-  </si>
-  <si>
-    <t>[81.0-81.24]</t>
-  </si>
-  <si>
-    <t>[81.24-81.48]</t>
-  </si>
-  <si>
-    <t>[81.48-81.72]</t>
-  </si>
-  <si>
-    <t>[81.72-81.96]</t>
-  </si>
-  <si>
-    <t>[81.96-82.2]</t>
-  </si>
-  <si>
-    <t>[82.2-82.44]</t>
-  </si>
-  <si>
-    <t>[82.44-82.68]</t>
-  </si>
-  <si>
-    <t>[78.73-79.0]</t>
-  </si>
-  <si>
-    <t>[79.0-79.27]</t>
-  </si>
-  <si>
-    <t>[79.27-79.54]</t>
-  </si>
-  <si>
-    <t>[79.54-79.81]</t>
-  </si>
-  <si>
-    <t>[79.81-80.08]</t>
-  </si>
-  <si>
-    <t>[80.08-80.35]</t>
-  </si>
-  <si>
-    <t>[80.35-80.62]</t>
-  </si>
-  <si>
-    <t>[80.62-80.89]</t>
-  </si>
-  <si>
-    <t>[80.89-81.16]</t>
-  </si>
-  <si>
-    <t>[81.16-81.43]</t>
-  </si>
-  <si>
-    <t>[81.43-81.69]</t>
-  </si>
-  <si>
-    <t>[81.69-81.96]</t>
-  </si>
-  <si>
-    <t>[81.96-82.23]</t>
-  </si>
-  <si>
-    <t>[82.23-82.5]</t>
-  </si>
-  <si>
-    <t>[79.62-79.85]</t>
-  </si>
-  <si>
-    <t>[79.85-80.08]</t>
-  </si>
-  <si>
-    <t>[80.08-80.3]</t>
-  </si>
-  <si>
-    <t>[80.3-80.53]</t>
-  </si>
-  <si>
-    <t>[80.53-80.76]</t>
-  </si>
-  <si>
-    <t>[80.76-80.98]</t>
-  </si>
-  <si>
-    <t>[80.98-81.21]</t>
-  </si>
-  <si>
-    <t>[81.21-81.44]</t>
-  </si>
-  <si>
-    <t>[81.44-81.66]</t>
-  </si>
-  <si>
-    <t>[81.66-81.89]</t>
-  </si>
-  <si>
-    <t>[81.89-82.12]</t>
-  </si>
-  <si>
-    <t>[82.12-82.34]</t>
-  </si>
-  <si>
-    <t>[82.34-82.57]</t>
-  </si>
-  <si>
-    <t>[82.57-82.8]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+  <si>
+    <t>[3.449-3.465]</t>
+  </si>
+  <si>
+    <t>[3.465-3.48]</t>
+  </si>
+  <si>
+    <t>[3.48-3.496]</t>
+  </si>
+  <si>
+    <t>[3.496-3.512]</t>
+  </si>
+  <si>
+    <t>[3.512-3.528]</t>
+  </si>
+  <si>
+    <t>[3.528-3.543]</t>
+  </si>
+  <si>
+    <t>[3.543-3.559]</t>
+  </si>
+  <si>
+    <t>[3.559-3.575]</t>
+  </si>
+  <si>
+    <t>[3.575-3.591]</t>
+  </si>
+  <si>
+    <t>[3.591-3.606]</t>
+  </si>
+  <si>
+    <t>[3.606-3.622]</t>
+  </si>
+  <si>
+    <t>[3.622-3.638]</t>
+  </si>
+  <si>
+    <t>[3.638-3.654]</t>
+  </si>
+  <si>
+    <t>[3.654-3.669]</t>
+  </si>
+  <si>
+    <t>[3.459-3.474]</t>
+  </si>
+  <si>
+    <t>[3.474-3.489]</t>
+  </si>
+  <si>
+    <t>[3.489-3.504]</t>
+  </si>
+  <si>
+    <t>[3.504-3.519]</t>
+  </si>
+  <si>
+    <t>[3.519-3.534]</t>
+  </si>
+  <si>
+    <t>[3.534-3.549]</t>
+  </si>
+  <si>
+    <t>[3.549-3.564]</t>
+  </si>
+  <si>
+    <t>[3.564-3.579]</t>
+  </si>
+  <si>
+    <t>[3.579-3.594]</t>
+  </si>
+  <si>
+    <t>[3.594-3.609]</t>
+  </si>
+  <si>
+    <t>[3.609-3.624]</t>
+  </si>
+  <si>
+    <t>[3.624-3.639]</t>
+  </si>
+  <si>
+    <t>[3.639-3.654]</t>
+  </si>
+  <si>
+    <t>[3.449-3.464]</t>
+  </si>
+  <si>
+    <t>[3.464-3.48]</t>
+  </si>
+  <si>
+    <t>[3.48-3.495]</t>
+  </si>
+  <si>
+    <t>[3.495-3.511]</t>
+  </si>
+  <si>
+    <t>[3.511-3.526]</t>
+  </si>
+  <si>
+    <t>[3.526-3.542]</t>
+  </si>
+  <si>
+    <t>[3.542-3.557]</t>
+  </si>
+  <si>
+    <t>[3.557-3.573]</t>
+  </si>
+  <si>
+    <t>[3.573-3.588]</t>
+  </si>
+  <si>
+    <t>[3.588-3.604]</t>
+  </si>
+  <si>
+    <t>[3.604-3.619]</t>
+  </si>
+  <si>
+    <t>[3.619-3.635]</t>
+  </si>
+  <si>
+    <t>[3.635-3.65]</t>
+  </si>
+  <si>
+    <t>[3.65-3.666]</t>
+  </si>
+  <si>
+    <t>[3.457-3.47]</t>
+  </si>
+  <si>
+    <t>[3.47-3.484]</t>
+  </si>
+  <si>
+    <t>[3.484-3.498]</t>
+  </si>
+  <si>
+    <t>[3.498-3.511]</t>
+  </si>
+  <si>
+    <t>[3.511-3.525]</t>
+  </si>
+  <si>
+    <t>[3.525-3.539]</t>
+  </si>
+  <si>
+    <t>[3.539-3.552]</t>
+  </si>
+  <si>
+    <t>[3.552-3.566]</t>
+  </si>
+  <si>
+    <t>[3.566-3.58]</t>
+  </si>
+  <si>
+    <t>[3.58-3.593]</t>
+  </si>
+  <si>
+    <t>[3.593-3.607]</t>
+  </si>
+  <si>
+    <t>[3.607-3.621]</t>
+  </si>
+  <si>
+    <t>[3.621-3.634]</t>
+  </si>
+  <si>
+    <t>[3.634-3.648]</t>
+  </si>
+  <si>
+    <t>[17.66-17.74]</t>
+  </si>
+  <si>
+    <t>[17.74-17.83]</t>
+  </si>
+  <si>
+    <t>[17.83-17.91]</t>
+  </si>
+  <si>
+    <t>[17.91-18.0]</t>
+  </si>
+  <si>
+    <t>[18.0-18.08]</t>
+  </si>
+  <si>
+    <t>[18.08-18.17]</t>
+  </si>
+  <si>
+    <t>[18.17-18.25]</t>
+  </si>
+  <si>
+    <t>[18.25-18.34]</t>
+  </si>
+  <si>
+    <t>[18.34-18.42]</t>
+  </si>
+  <si>
+    <t>[18.42-18.51]</t>
+  </si>
+  <si>
+    <t>[18.51-18.6]</t>
+  </si>
+  <si>
+    <t>[18.6-18.68]</t>
+  </si>
+  <si>
+    <t>[18.68-18.77]</t>
+  </si>
+  <si>
+    <t>[18.77-18.85]</t>
+  </si>
+  <si>
+    <t>[17.74-17.82]</t>
+  </si>
+  <si>
+    <t>[17.82-17.9]</t>
+  </si>
+  <si>
+    <t>[17.9-17.98]</t>
+  </si>
+  <si>
+    <t>[17.98-18.06]</t>
+  </si>
+  <si>
+    <t>[18.06-18.14]</t>
+  </si>
+  <si>
+    <t>[18.14-18.23]</t>
+  </si>
+  <si>
+    <t>[18.23-18.31]</t>
+  </si>
+  <si>
+    <t>[18.31-18.39]</t>
+  </si>
+  <si>
+    <t>[18.39-18.47]</t>
+  </si>
+  <si>
+    <t>[18.47-18.55]</t>
+  </si>
+  <si>
+    <t>[18.55-18.63]</t>
+  </si>
+  <si>
+    <t>[18.63-18.71]</t>
+  </si>
+  <si>
+    <t>[18.71-18.8]</t>
+  </si>
+  <si>
+    <t>[17.68-17.76]</t>
+  </si>
+  <si>
+    <t>[17.76-17.85]</t>
+  </si>
+  <si>
+    <t>[17.85-17.93]</t>
+  </si>
+  <si>
+    <t>[17.93-18.01]</t>
+  </si>
+  <si>
+    <t>[18.01-18.1]</t>
+  </si>
+  <si>
+    <t>[18.1-18.18]</t>
+  </si>
+  <si>
+    <t>[18.18-18.26]</t>
+  </si>
+  <si>
+    <t>[18.26-18.35]</t>
+  </si>
+  <si>
+    <t>[18.35-18.43]</t>
+  </si>
+  <si>
+    <t>[18.43-18.52]</t>
+  </si>
+  <si>
+    <t>[18.52-18.6]</t>
+  </si>
+  <si>
+    <t>[17.77-17.84]</t>
+  </si>
+  <si>
+    <t>[17.84-17.92]</t>
+  </si>
+  <si>
+    <t>[17.92-17.99]</t>
+  </si>
+  <si>
+    <t>[17.99-18.07]</t>
+  </si>
+  <si>
+    <t>[18.07-18.14]</t>
+  </si>
+  <si>
+    <t>[18.14-18.22]</t>
+  </si>
+  <si>
+    <t>[18.22-18.29]</t>
+  </si>
+  <si>
+    <t>[18.29-18.37]</t>
+  </si>
+  <si>
+    <t>[18.37-18.44]</t>
+  </si>
+  <si>
+    <t>[18.44-18.52]</t>
+  </si>
+  <si>
+    <t>[18.52-18.59]</t>
+  </si>
+  <si>
+    <t>[18.59-18.67]</t>
+  </si>
+  <si>
+    <t>[18.67-18.74]</t>
+  </si>
+  <si>
+    <t>[18.74-18.82]</t>
+  </si>
+  <si>
+    <t>[82.89-83.02]</t>
+  </si>
+  <si>
+    <t>[83.02-83.15]</t>
+  </si>
+  <si>
+    <t>[83.15-83.28]</t>
+  </si>
+  <si>
+    <t>[83.28-83.42]</t>
+  </si>
+  <si>
+    <t>[83.42-83.55]</t>
+  </si>
+  <si>
+    <t>[83.55-83.68]</t>
+  </si>
+  <si>
+    <t>[83.68-83.81]</t>
+  </si>
+  <si>
+    <t>[83.81-83.94]</t>
+  </si>
+  <si>
+    <t>[83.94-84.08]</t>
+  </si>
+  <si>
+    <t>[84.08-84.21]</t>
+  </si>
+  <si>
+    <t>[84.21-84.34]</t>
+  </si>
+  <si>
+    <t>[84.34-84.47]</t>
+  </si>
+  <si>
+    <t>[84.47-84.6]</t>
+  </si>
+  <si>
+    <t>[84.6-84.74]</t>
+  </si>
+  <si>
+    <t>[83.31-83.4]</t>
+  </si>
+  <si>
+    <t>[83.4-83.49]</t>
+  </si>
+  <si>
+    <t>[83.49-83.58]</t>
+  </si>
+  <si>
+    <t>[83.58-83.67]</t>
+  </si>
+  <si>
+    <t>[83.67-83.77]</t>
+  </si>
+  <si>
+    <t>[83.77-83.86]</t>
+  </si>
+  <si>
+    <t>[83.86-83.95]</t>
+  </si>
+  <si>
+    <t>[83.95-84.04]</t>
+  </si>
+  <si>
+    <t>[84.04-84.13]</t>
+  </si>
+  <si>
+    <t>[84.13-84.23]</t>
+  </si>
+  <si>
+    <t>[84.23-84.32]</t>
+  </si>
+  <si>
+    <t>[84.32-84.41]</t>
+  </si>
+  <si>
+    <t>[84.41-84.5]</t>
+  </si>
+  <si>
+    <t>[84.5-84.59]</t>
+  </si>
+  <si>
+    <t>[83.24-83.34]</t>
+  </si>
+  <si>
+    <t>[83.34-83.44]</t>
+  </si>
+  <si>
+    <t>[83.44-83.54]</t>
+  </si>
+  <si>
+    <t>[83.54-83.63]</t>
+  </si>
+  <si>
+    <t>[83.63-83.73]</t>
+  </si>
+  <si>
+    <t>[83.73-83.83]</t>
+  </si>
+  <si>
+    <t>[83.83-83.93]</t>
+  </si>
+  <si>
+    <t>[83.93-84.03]</t>
+  </si>
+  <si>
+    <t>[84.03-84.12]</t>
+  </si>
+  <si>
+    <t>[84.12-84.22]</t>
+  </si>
+  <si>
+    <t>[84.22-84.32]</t>
+  </si>
+  <si>
+    <t>[84.32-84.42]</t>
+  </si>
+  <si>
+    <t>[84.42-84.51]</t>
+  </si>
+  <si>
+    <t>[84.51-84.61]</t>
   </si>
 </sst>
 </file>
@@ -638,31 +581,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,31 +617,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,46 +768,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[7.1-7.68]</c:v>
+                  <c:v>[17.66-17.74]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[7.68-8.27]</c:v>
+                  <c:v>[17.74-17.82]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.27-8.85]</c:v>
+                  <c:v>[17.82-17.9]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.85-9.44]</c:v>
+                  <c:v>[17.9-17.98]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.44-10.02]</c:v>
+                  <c:v>[17.98-18.06]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.02-10.61]</c:v>
+                  <c:v>[18.06-18.14]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.61-11.19]</c:v>
+                  <c:v>[18.14-18.23]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.19-11.77]</c:v>
+                  <c:v>[18.23-18.31]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.77-12.36]</c:v>
+                  <c:v>[18.31-18.39]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[12.36-12.94]</c:v>
+                  <c:v>[18.39-18.47]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[12.94-13.53]</c:v>
+                  <c:v>[18.47-18.55]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[13.53-14.11]</c:v>
+                  <c:v>[18.55-18.63]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[14.11-14.7]</c:v>
+                  <c:v>[18.63-18.71]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[14.7-15.28]</c:v>
+                  <c:v>[18.71-18.8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -876,43 +819,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1052,46 +995,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[5.62-6.22]</c:v>
+                  <c:v>[17.68-17.76]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6.22-6.82]</c:v>
+                  <c:v>[17.76-17.85]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[6.82-7.42]</c:v>
+                  <c:v>[17.85-17.93]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.42-8.02]</c:v>
+                  <c:v>[17.93-18.01]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.02-8.63]</c:v>
+                  <c:v>[18.01-18.1]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[8.63-9.23]</c:v>
+                  <c:v>[18.1-18.18]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[9.23-9.83]</c:v>
+                  <c:v>[18.18-18.26]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[9.83-10.43]</c:v>
+                  <c:v>[18.26-18.35]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.43-11.04]</c:v>
+                  <c:v>[18.35-18.43]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.04-11.64]</c:v>
+                  <c:v>[18.43-18.52]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.64-12.24]</c:v>
+                  <c:v>[18.52-18.6]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[12.24-12.84]</c:v>
+                  <c:v>[18.6-18.68]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[12.84-13.44]</c:v>
+                  <c:v>[18.68-18.77]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[13.44-14.05]</c:v>
+                  <c:v>[18.77-18.85]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1106,43 +1049,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,46 +1222,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[6.78-7.44]</c:v>
+                  <c:v>[17.77-17.84]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[7.44-8.11]</c:v>
+                  <c:v>[17.84-17.92]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[8.11-8.77]</c:v>
+                  <c:v>[17.92-17.99]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[8.77-9.44]</c:v>
+                  <c:v>[17.99-18.07]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[9.44-10.1]</c:v>
+                  <c:v>[18.07-18.14]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.1-10.77]</c:v>
+                  <c:v>[18.14-18.22]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.77-11.43]</c:v>
+                  <c:v>[18.22-18.29]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[11.43-12.1]</c:v>
+                  <c:v>[18.29-18.37]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[12.1-12.76]</c:v>
+                  <c:v>[18.37-18.44]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[12.76-13.43]</c:v>
+                  <c:v>[18.44-18.52]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[13.43-14.09]</c:v>
+                  <c:v>[18.52-18.59]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[14.09-14.76]</c:v>
+                  <c:v>[18.59-18.67]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[14.76-15.42]</c:v>
+                  <c:v>[18.67-18.74]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[15.42-16.09]</c:v>
+                  <c:v>[18.74-18.82]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1330,46 +1273,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,46 +1449,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[78.73-79.02]</c:v>
+                  <c:v>[82.89-83.02]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[79.02-79.31]</c:v>
+                  <c:v>[83.02-83.15]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[79.31-79.6]</c:v>
+                  <c:v>[83.15-83.28]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[79.6-79.89]</c:v>
+                  <c:v>[83.28-83.42]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[79.89-80.18]</c:v>
+                  <c:v>[83.42-83.55]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[80.18-80.47]</c:v>
+                  <c:v>[83.55-83.68]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[80.47-80.76]</c:v>
+                  <c:v>[83.68-83.81]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[80.76-81.05]</c:v>
+                  <c:v>[83.81-83.94]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[81.05-81.34]</c:v>
+                  <c:v>[83.94-84.08]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[81.34-81.63]</c:v>
+                  <c:v>[84.08-84.21]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[81.63-81.92]</c:v>
+                  <c:v>[84.21-84.34]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[81.92-82.21]</c:v>
+                  <c:v>[84.34-84.47]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[82.21-82.5]</c:v>
+                  <c:v>[84.47-84.6]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[82.5-82.8]</c:v>
+                  <c:v>[84.6-84.74]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1560,43 +1503,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,46 +1676,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[79.32-79.56]</c:v>
+                  <c:v>[83.31-83.4]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[79.56-79.8]</c:v>
+                  <c:v>[83.4-83.49]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[79.8-80.04]</c:v>
+                  <c:v>[83.49-83.58]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[80.04-80.28]</c:v>
+                  <c:v>[83.58-83.67]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[80.28-80.52]</c:v>
+                  <c:v>[83.67-83.77]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[80.52-80.76]</c:v>
+                  <c:v>[83.77-83.86]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[80.76-81.0]</c:v>
+                  <c:v>[83.86-83.95]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[81.0-81.24]</c:v>
+                  <c:v>[83.95-84.04]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[81.24-81.48]</c:v>
+                  <c:v>[84.04-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[81.48-81.72]</c:v>
+                  <c:v>[84.13-84.23]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[81.72-81.96]</c:v>
+                  <c:v>[84.23-84.32]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[81.96-82.2]</c:v>
+                  <c:v>[84.32-84.41]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[82.2-82.44]</c:v>
+                  <c:v>[84.41-84.5]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[82.44-82.68]</c:v>
+                  <c:v>[84.5-84.59]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1787,43 +1730,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,46 +1903,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[78.73-79.0]</c:v>
+                  <c:v>[82.89-83.02]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[79.0-79.27]</c:v>
+                  <c:v>[83.02-83.15]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[79.27-79.54]</c:v>
+                  <c:v>[83.15-83.28]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[79.54-79.81]</c:v>
+                  <c:v>[83.28-83.42]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[79.81-80.08]</c:v>
+                  <c:v>[83.42-83.55]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[80.08-80.35]</c:v>
+                  <c:v>[83.55-83.68]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[80.35-80.62]</c:v>
+                  <c:v>[83.68-83.81]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[80.62-80.89]</c:v>
+                  <c:v>[83.81-83.94]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[80.89-81.16]</c:v>
+                  <c:v>[83.94-84.08]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[81.16-81.43]</c:v>
+                  <c:v>[84.08-84.21]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[81.43-81.69]</c:v>
+                  <c:v>[84.21-84.34]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[81.69-81.96]</c:v>
+                  <c:v>[84.34-84.47]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[81.96-82.23]</c:v>
+                  <c:v>[84.47-84.6]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[82.23-82.5]</c:v>
+                  <c:v>[84.6-84.74]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2014,43 +1957,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,46 +2130,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[79.62-79.85]</c:v>
+                  <c:v>[83.24-83.34]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[79.85-80.08]</c:v>
+                  <c:v>[83.34-83.44]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[80.08-80.3]</c:v>
+                  <c:v>[83.44-83.54]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[80.3-80.53]</c:v>
+                  <c:v>[83.54-83.63]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[80.53-80.76]</c:v>
+                  <c:v>[83.63-83.73]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[80.76-80.98]</c:v>
+                  <c:v>[83.73-83.83]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[80.98-81.21]</c:v>
+                  <c:v>[83.83-83.93]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[81.21-81.44]</c:v>
+                  <c:v>[83.93-84.03]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[81.44-81.66]</c:v>
+                  <c:v>[84.03-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[81.66-81.89]</c:v>
+                  <c:v>[84.12-84.22]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[81.89-82.12]</c:v>
+                  <c:v>[84.22-84.32]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[82.12-82.34]</c:v>
+                  <c:v>[84.32-84.42]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[82.34-82.57]</c:v>
+                  <c:v>[84.42-84.51]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[82.57-82.8]</c:v>
+                  <c:v>[84.51-84.61]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,40 +2184,40 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -2415,31 +2358,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,31 +2394,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,31 +2546,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,28 +2585,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,31 +2734,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,31 +2770,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,46 +2921,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.936-4.069]</c:v>
+                  <c:v>[3.449-3.465]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.069-4.201]</c:v>
+                  <c:v>[3.465-3.48]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.201-4.334]</c:v>
+                  <c:v>[3.48-3.496]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.334-4.467]</c:v>
+                  <c:v>[3.496-3.512]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.467-4.599]</c:v>
+                  <c:v>[3.512-3.528]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.599-4.732]</c:v>
+                  <c:v>[3.528-3.543]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.732-4.864]</c:v>
+                  <c:v>[3.543-3.559]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.864-4.997]</c:v>
+                  <c:v>[3.559-3.575]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.997-5.129]</c:v>
+                  <c:v>[3.575-3.591]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[5.129-5.262]</c:v>
+                  <c:v>[3.591-3.606]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[5.262-5.395]</c:v>
+                  <c:v>[3.606-3.622]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[5.395-5.527]</c:v>
+                  <c:v>[3.622-3.638]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[5.527-5.66]</c:v>
+                  <c:v>[3.638-3.654]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[5.66-5.792]</c:v>
+                  <c:v>[3.654-3.669]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3029,46 +2972,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,46 +3148,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[4.074-4.178]</c:v>
+                  <c:v>[3.459-3.474]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.178-4.283]</c:v>
+                  <c:v>[3.474-3.489]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.283-4.388]</c:v>
+                  <c:v>[3.489-3.504]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.388-4.493]</c:v>
+                  <c:v>[3.504-3.519]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.493-4.598]</c:v>
+                  <c:v>[3.519-3.534]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.598-4.702]</c:v>
+                  <c:v>[3.534-3.549]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.702-4.807]</c:v>
+                  <c:v>[3.549-3.564]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.807-4.912]</c:v>
+                  <c:v>[3.564-3.579]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.912-5.017]</c:v>
+                  <c:v>[3.579-3.594]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[5.017-5.122]</c:v>
+                  <c:v>[3.594-3.609]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[5.122-5.226]</c:v>
+                  <c:v>[3.609-3.624]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[5.226-5.331]</c:v>
+                  <c:v>[3.624-3.639]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[5.331-5.436]</c:v>
+                  <c:v>[3.639-3.654]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[5.436-5.541]</c:v>
+                  <c:v>[3.654-3.669]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3259,43 +3202,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,46 +3375,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[4.295-4.402]</c:v>
+                  <c:v>[3.449-3.464]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.402-4.509]</c:v>
+                  <c:v>[3.464-3.48]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.509-4.616]</c:v>
+                  <c:v>[3.48-3.495]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.616-4.723]</c:v>
+                  <c:v>[3.495-3.511]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.723-4.829]</c:v>
+                  <c:v>[3.511-3.526]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.829-4.936]</c:v>
+                  <c:v>[3.526-3.542]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.936-5.043]</c:v>
+                  <c:v>[3.542-3.557]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[5.043-5.15]</c:v>
+                  <c:v>[3.557-3.573]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[5.15-5.257]</c:v>
+                  <c:v>[3.573-3.588]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[5.257-5.364]</c:v>
+                  <c:v>[3.588-3.604]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[5.364-5.471]</c:v>
+                  <c:v>[3.604-3.619]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[5.471-5.578]</c:v>
+                  <c:v>[3.619-3.635]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[5.578-5.685]</c:v>
+                  <c:v>[3.635-3.65]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[5.685-5.792]</c:v>
+                  <c:v>[3.65-3.666]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3483,43 +3426,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3659,46 +3602,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.936-4.055]</c:v>
+                  <c:v>[3.457-3.47]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.055-4.173]</c:v>
+                  <c:v>[3.47-3.484]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.173-4.292]</c:v>
+                  <c:v>[3.484-3.498]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.292-4.41]</c:v>
+                  <c:v>[3.498-3.511]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.41-4.529]</c:v>
+                  <c:v>[3.511-3.525]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.529-4.647]</c:v>
+                  <c:v>[3.525-3.539]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.647-4.766]</c:v>
+                  <c:v>[3.539-3.552]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.766-4.884]</c:v>
+                  <c:v>[3.552-3.566]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.884-5.003]</c:v>
+                  <c:v>[3.566-3.58]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[5.003-5.121]</c:v>
+                  <c:v>[3.58-3.593]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[5.121-5.24]</c:v>
+                  <c:v>[3.593-3.607]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[5.24-5.359]</c:v>
+                  <c:v>[3.607-3.621]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[5.359-5.477]</c:v>
+                  <c:v>[3.621-3.634]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[5.477-5.596]</c:v>
+                  <c:v>[3.634-3.648]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3710,46 +3653,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,46 +3829,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[5.62-6.36]</c:v>
+                  <c:v>[17.66-17.74]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6.36-7.11]</c:v>
+                  <c:v>[17.74-17.83]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[7.11-7.86]</c:v>
+                  <c:v>[17.83-17.91]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[7.86-8.61]</c:v>
+                  <c:v>[17.91-18.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[8.61-9.36]</c:v>
+                  <c:v>[18.0-18.08]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[9.36-10.11]</c:v>
+                  <c:v>[18.08-18.17]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.11-10.85]</c:v>
+                  <c:v>[18.17-18.25]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.85-11.6]</c:v>
+                  <c:v>[18.25-18.34]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.6-12.35]</c:v>
+                  <c:v>[18.34-18.42]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[12.35-13.1]</c:v>
+                  <c:v>[18.42-18.51]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[13.1-13.85]</c:v>
+                  <c:v>[18.51-18.6]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[13.85-14.59]</c:v>
+                  <c:v>[18.6-18.68]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[14.59-15.34]</c:v>
+                  <c:v>[18.68-18.77]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[15.34-16.09]</c:v>
+                  <c:v>[18.77-18.85]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3937,46 +3880,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,79 +4869,79 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5017,39 +4960,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -5057,71 +5000,71 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5143,7 +5086,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5151,106 +5094,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5269,23 +5212,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -5293,90 +5236,90 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5403,106 +5346,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5521,7 +5464,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5529,106 +5472,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5647,7 +5590,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5655,15 +5598,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5671,90 +5614,90 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5773,7 +5716,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -5781,87 +5724,87 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -5869,15 +5812,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -5899,79 +5842,79 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2">
         <v>10</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5990,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5998,71 +5941,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7">
         <v>15</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6081,63 +6024,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6145,15 +6088,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6175,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6183,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6191,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6199,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6207,7 +6150,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6215,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6223,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6231,7 +6174,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6239,7 +6182,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6247,7 +6190,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6263,7 +6206,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6271,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6279,7 +6222,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6309,7 +6252,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6317,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6325,7 +6268,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6333,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6341,7 +6284,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6349,7 +6292,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6365,7 +6308,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6373,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6381,7 +6324,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6389,7 +6332,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6397,15 +6340,15 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6424,31 +6367,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -6456,79 +6399,79 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6550,95 +6493,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -6646,18 +6589,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6676,114 +6619,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
